--- a/data/trans_camb/P14_2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P14_2-Edad-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>10,1</t>
+          <t>9,81</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,22</t>
+          <t>6,86</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,2</t>
+          <t>8,37</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,04; 16,68</t>
+          <t>4,25; 16,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,5; 11,63</t>
+          <t>2,15; 12,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,74; 12,58</t>
+          <t>4,51; 12,33</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>781,73%</t>
+          <t>643,55%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>186,65%</t>
+          <t>223,84%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>360,44%</t>
+          <t>368,92%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>145,46; —</t>
+          <t>53,82; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,61; 942,27</t>
+          <t>24,21; 845,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>107,19; 974,66</t>
+          <t>99,87; 1052,51</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,12</t>
+          <t>9,17</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,18</t>
+          <t>11,55</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,09</t>
+          <t>10,29</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,78; 15,01</t>
+          <t>3,76; 14,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,11; 16,58</t>
+          <t>5,98; 17,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,31; 13,85</t>
+          <t>6,48; 14,73</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>249,21%</t>
+          <t>246,15%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>203,79%</t>
+          <t>206,75%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>222,54%</t>
+          <t>223,28%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>46,77; 772,82</t>
+          <t>52,0; 825,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>54,88; 500,8</t>
+          <t>64,06; 558,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>104,03; 440,2</t>
+          <t>102,76; 508,26</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>10,9</t>
+          <t>11,07</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>9,14</t>
+          <t>8,95</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>10,03</t>
+          <t>9,99</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,97; 16,59</t>
+          <t>5,59; 16,74</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,16; 14,09</t>
+          <t>4,06; 13,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,81; 13,67</t>
+          <t>6,61; 14,1</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>209,61%</t>
+          <t>198,5%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>107,4%</t>
+          <t>104,64%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>146,22%</t>
+          <t>140,9%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>80,65; 514,97</t>
+          <t>65,64; 455,97</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>35,53; 228,83</t>
+          <t>35,08; 223,66</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>75,57; 246,57</t>
+          <t>69,31; 251,39</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>9,79</t>
+          <t>9,2</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>10,58</t>
+          <t>10,3</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>10,22</t>
+          <t>9,78</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,41; 15,51</t>
+          <t>3,81; 14,19</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,53; 15,49</t>
+          <t>6,06; 14,26</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,97; 13,54</t>
+          <t>6,47; 13,2</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>131,76%</t>
+          <t>124,75%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>266,24%</t>
+          <t>250,54%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>181,49%</t>
+          <t>171,65%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>40,38; 303,33</t>
+          <t>39,13; 289,13</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>108,92; 631,52</t>
+          <t>105,8; 593,41</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>91,48; 319,78</t>
+          <t>88,18; 307,5</t>
         </is>
       </c>
     </row>
@@ -940,17 +940,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>9,11</t>
+          <t>8,83</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>6,66</t>
+          <t>6,55</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>7,88</t>
+          <t>7,68</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>4,46; 13,75</t>
+          <t>4,08; 13,17</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,16; 12,17</t>
+          <t>2,3; 11,02</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>4,49; 11,12</t>
+          <t>4,31; 10,87</t>
         </is>
       </c>
     </row>
@@ -986,17 +986,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>252,6%</t>
+          <t>245,23%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>162,12%</t>
+          <t>158,43%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>204,01%</t>
+          <t>198,52%</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>68,49; 682,54</t>
+          <t>57,67; 775,66</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>27,92; 520,74</t>
+          <t>29,45; 450,77</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>79,17; 404,28</t>
+          <t>81,27; 409,33</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1036,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>3,34</t>
+          <t>3,46</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>2,38</t>
+          <t>2,58</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 7,51</t>
+          <t>-1,55; 6,63</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>1,08; 7,0</t>
+          <t>0,78; 6,99</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,03; 5,69</t>
+          <t>0,39; 5,92</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1082,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>48,83%</t>
+          <t>83,63%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>328,98%</t>
+          <t>286,09%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>151,33%</t>
+          <t>180,88%</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>3,22; —</t>
+          <t>-11,52; 1606,59</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-16,94; 588,85</t>
+          <t>-5,84; 671,84</t>
         </is>
       </c>
     </row>
@@ -1132,17 +1132,17 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>8,52</t>
+          <t>8,4</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>7,88</t>
+          <t>7,91</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>8,19</t>
+          <t>8,15</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>6,29; 10,71</t>
+          <t>6,29; 10,47</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>6,02; 9,74</t>
+          <t>5,94; 9,81</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>6,83; 9,64</t>
+          <t>6,7; 9,5</t>
         </is>
       </c>
     </row>
@@ -1178,17 +1178,17 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>207,71%</t>
+          <t>203,79%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>177,73%</t>
+          <t>176,14%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>191,79%</t>
+          <t>189,05%</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,24 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>120,14; 316,38</t>
+          <t>120,33; 310,81</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>114,81; 259,95</t>
+          <t>109,53; 270,16</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>142,83; 261,96</t>
+          <t>138,21; 252,79</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P14_2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P14_2-Edad-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,209 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>9,81</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>6,86</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>8,37</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>9.525317538799602</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>7.197237469697986</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>8.381340745996477</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>4,25; 16,08</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>2,15; 12,51</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>4,51; 12,33</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>4.580324698344216</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>2.357402241628499</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>4.658564614186272</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>643,55%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>223,84%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>368,92%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>15.79235409599208</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>12.96471346613859</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>12.30800470639243</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>53,82; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>24,21; 845,92</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>99,87; 1052,51</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>7.330070326165499</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>2.380287549310991</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>3.90699938224943</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>9,17</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>11,55</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>10,29</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>0.7686835453706766</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>0.2891867999226667</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>0.9887744801854483</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>3,76; 14,9</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>5,98; 17,83</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>6,48; 14,73</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="inlineStr"/>
+      <c r="D9" s="6" t="n">
+        <v>9.392208967032733</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>10.77482186213931</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>246,15%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>206,75%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>223,28%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>9.090456966534873</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>11.0927380761942</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>10.05681197754778</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>52,0; 825,11</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>64,06; 558,32</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>102,76; 508,26</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>3.964631445003454</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>5.834637337103259</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>6.177712157081651</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>11,07</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>8,95</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>9,99</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>14.73537385645396</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>17.51715206877206</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>14.23315167437411</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>5,59; 16,74</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>4,06; 13,99</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>6,61; 14,1</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>2.586262868480218</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>2.009772953213748</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>2.255416356280292</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>198,5%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>104,64%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>140,9%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>0.5770541714537752</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>0.6205378210080543</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>0.991702562853424</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>65,64; 455,97</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>35,08; 223,66</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>69,31; 251,39</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>8.984920894642528</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>5.360969225804368</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>5.044989517676539</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,287 +773,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>9,2</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>10,3</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>9,78</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>10.58815928634279</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>8.923775043066346</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>9.759465558233574</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>3,81; 14,19</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>6,06; 14,26</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>6,47; 13,2</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>5.246463479077969</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>4.074782507402521</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>6.225057693022428</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>124,75%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>250,54%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>171,65%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>16.41569270248705</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>14.12791635740861</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>13.82643810407579</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>39,13; 289,13</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>105,8; 593,41</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>88,18; 307,5</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>1.8801790570615</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>1.034965257830137</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>1.366795766721849</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>8,83</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>6,55</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>7,68</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>0.6019539099839347</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>0.3538989300428492</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>0.679028732543394</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>4,08; 13,17</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>2,3; 11,02</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>4,31; 10,87</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>4.338293045915358</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>2.237237795106779</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>2.490048191354446</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>245,23%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>158,43%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>198,52%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>9.097233478778223</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>10.30954083669723</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>9.743004978390701</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>57,67; 775,66</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>29,45; 450,77</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>81,27; 409,33</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>3.641973999585541</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>6.101241271614239</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>6.289201547192384</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>1,43</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>3,46</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>2,58</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>14.18512264256293</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>14.31275356701699</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>13.14654586603081</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-1,55; 6,63</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>0,78; 6,99</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>0,39; 5,92</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>1.208945152484463</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>2.55963651616295</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>1.704879200268024</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>83,63%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>286,09%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>180,88%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>0.328997725287056</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>1.09385751798322</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>0.8753544609493126</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; —</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-11,52; 1606,59</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-5,84; 671,84</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>2.69355691453316</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>6.171264300155092</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>3.029252589370035</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1130,93 +985,313 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>8,4</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>7,91</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>8,15</t>
-        </is>
+      <c r="C28" s="5" t="n">
+        <v>8.915547988341736</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>6.414868453863515</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>7.662855167395835</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>6,29; 10,47</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>5,94; 9,81</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>6,7; 9,5</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>4.168825696399987</v>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>1.961969799055654</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>4.357782688340158</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>203,79%</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>176,14%</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>189,05%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>13.32195620634806</v>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>10.71793100044935</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>10.92540365022223</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>120,33; 310,81</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>109,53; 270,16</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>138,21; 252,79</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>2.464906359706362</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>1.528818485743294</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>1.960140779435321</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>0.5815580639965411</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>0.2606610566193084</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>0.7807955975448213</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C33" s="6" t="n">
+        <v>7.602149935478492</v>
+      </c>
+      <c r="D33" s="6" t="n">
+        <v>4.149525108169713</v>
+      </c>
+      <c r="E33" s="6" t="n">
+        <v>4.037966874865827</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>1.01489797970501</v>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>3.577032374978498</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>2.466121758193619</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>-2.433632908623713</v>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>1.024722848481861</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>0.2010940811113383</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>6.611710122940175</v>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>7.126869384871193</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>5.610983643696138</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C37" s="6" t="n">
+        <v>0.4546361412196779</v>
+      </c>
+      <c r="D37" s="6" t="n">
+        <v>3.406109573549762</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <v>1.581071103914115</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C38" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D38" s="6" t="n">
+        <v>0.02942287447275346</v>
+      </c>
+      <c r="E38" s="6" t="n">
+        <v>-0.1861775500626417</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C39" s="6" t="inlineStr"/>
+      <c r="D39" s="6" t="n">
+        <v>17.63703355406128</v>
+      </c>
+      <c r="E39" s="6" t="n">
+        <v>6.597915121153149</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>8.176559681042178</v>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>7.910753754982047</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>8.040590917467078</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>6.109954486416313</v>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>5.979663166595431</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>6.573329048131965</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="n">
+        <v>10.27204840394767</v>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>9.854043983949698</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>9.373438445367519</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C43" s="6" t="n">
+        <v>1.954800954957514</v>
+      </c>
+      <c r="D43" s="6" t="n">
+        <v>1.782014302391009</v>
+      </c>
+      <c r="E43" s="6" t="n">
+        <v>1.863846230504214</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C44" s="6" t="n">
+        <v>1.179245864998289</v>
+      </c>
+      <c r="D44" s="6" t="n">
+        <v>1.085036124770254</v>
+      </c>
+      <c r="E44" s="6" t="n">
+        <v>1.365955113717208</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C45" s="6" t="n">
+        <v>2.984170083793196</v>
+      </c>
+      <c r="D45" s="6" t="n">
+        <v>2.726662967831017</v>
+      </c>
+      <c r="E45" s="6" t="n">
+        <v>2.52043803255784</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1224,14 +1299,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
